--- a/results/CONCILIACAO_01-08-2025_a_20-08-2025.xlsx
+++ b/results/CONCILIACAO_01-08-2025_a_20-08-2025.xlsx
@@ -466,7 +466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,17 +595,17 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>FORNECEDORES - OUTROS</t>
+          <t>FORNECEDORES</t>
         </is>
       </c>
       <c r="C3" s="4" t="n">
-        <v>69826115.86</v>
+        <v>108371863.29</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>69826115.86</v>
+        <v>108371863.29</v>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
@@ -619,7 +619,7 @@
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>Financeiro: 0.0 | Contábil: 69826115.86 | Diferença: 69826115.86</t>
+          <t>Financeiro: 0.0 | Contábil: 108371863.29 | Diferença: 108371863.29</t>
         </is>
       </c>
       <c r="I3" s="5" t="n"/>
@@ -634,17 +634,17 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>FORNECEDORES NACIONAIS</t>
+          <t>FORNECEDORES</t>
         </is>
       </c>
       <c r="C4" s="4" t="n">
-        <v>38545747.43</v>
+        <v>108371863.29</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>38545747.43</v>
+        <v>108371863.29</v>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
@@ -658,12 +658,714 @@
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>Financeiro: 0.0 | Contábil: 38545747.43 | Diferença: 38545747.43</t>
+          <t>Financeiro: 0.0 | Contábil: 108371863.29 | Diferença: 108371863.29</t>
         </is>
       </c>
       <c r="I4" s="5" t="n"/>
       <c r="J4" s="5" t="n"/>
       <c r="K4" s="5" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>108371863.29</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>108371863.29</v>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Contábil &gt; Financeiro</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>PENDENTE</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Financeiro: 0.0 | Contábil: 108371863.29 | Diferença: 108371863.29</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="n"/>
+      <c r="J5" s="5" t="n"/>
+      <c r="K5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>108371863.29</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>108371863.29</v>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>Contábil &gt; Financeiro</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>PENDENTE</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>Financeiro: 0.0 | Contábil: 108371863.29 | Diferença: 108371863.29</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="n"/>
+      <c r="J6" s="5" t="n"/>
+      <c r="K6" s="5" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>108371863.29</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>108371863.29</v>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>Contábil &gt; Financeiro</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>PENDENTE</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>Financeiro: 0.0 | Contábil: 108371863.29 | Diferença: 108371863.29</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="n"/>
+      <c r="J7" s="5" t="n"/>
+      <c r="K7" s="5" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>108371863.29</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>108371863.29</v>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>Contábil &gt; Financeiro</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>PENDENTE</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>Financeiro: 0.0 | Contábil: 108371863.29 | Diferença: 108371863.29</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="n"/>
+      <c r="J8" s="5" t="n"/>
+      <c r="K8" s="5" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>FORNECEDORES - OUTROS</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>69826115.86</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>69826115.86</v>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>Contábil &gt; Financeiro</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>PENDENTE</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
+        <is>
+          <t>Financeiro: 0.0 | Contábil: 69826115.86 | Diferença: 69826115.86</t>
+        </is>
+      </c>
+      <c r="I9" s="5" t="n"/>
+      <c r="J9" s="5" t="n"/>
+      <c r="K9" s="5" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>FORNECEDORES - OUTROS</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>69826115.86</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>69826115.86</v>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>Contábil &gt; Financeiro</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>PENDENTE</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <t>Financeiro: 0.0 | Contábil: 69826115.86 | Diferença: 69826115.86</t>
+        </is>
+      </c>
+      <c r="I10" s="5" t="n"/>
+      <c r="J10" s="5" t="n"/>
+      <c r="K10" s="5" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>FORNECEDORES - OUTROS</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>69826115.86</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>69826115.86</v>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>Contábil &gt; Financeiro</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>PENDENTE</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>Financeiro: 0.0 | Contábil: 69826115.86 | Diferença: 69826115.86</t>
+        </is>
+      </c>
+      <c r="I11" s="5" t="n"/>
+      <c r="J11" s="5" t="n"/>
+      <c r="K11" s="5" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>FORNECEDORES - OUTROS</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>69826115.86</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>69826115.86</v>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>Contábil &gt; Financeiro</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>PENDENTE</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
+        <is>
+          <t>Financeiro: 0.0 | Contábil: 69826115.86 | Diferença: 69826115.86</t>
+        </is>
+      </c>
+      <c r="I12" s="5" t="n"/>
+      <c r="J12" s="5" t="n"/>
+      <c r="K12" s="5" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>FORNECEDORES - OUTROS</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>69826115.86</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>69826115.86</v>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>Contábil &gt; Financeiro</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>PENDENTE</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="inlineStr">
+        <is>
+          <t>Financeiro: 0.0 | Contábil: 69826115.86 | Diferença: 69826115.86</t>
+        </is>
+      </c>
+      <c r="I13" s="5" t="n"/>
+      <c r="J13" s="5" t="n"/>
+      <c r="K13" s="5" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>FORNECEDORES - OUTROS</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>69826115.86</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>69826115.86</v>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>Contábil &gt; Financeiro</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>PENDENTE</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t>Financeiro: 0.0 | Contábil: 69826115.86 | Diferença: 69826115.86</t>
+        </is>
+      </c>
+      <c r="I14" s="5" t="n"/>
+      <c r="J14" s="5" t="n"/>
+      <c r="K14" s="5" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>FORNECEDORES - OUTROS</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>69826115.86</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>69826115.86</v>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>Contábil &gt; Financeiro</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>PENDENTE</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>Financeiro: 0.0 | Contábil: 69826115.86 | Diferença: 69826115.86</t>
+        </is>
+      </c>
+      <c r="I15" s="5" t="n"/>
+      <c r="J15" s="5" t="n"/>
+      <c r="K15" s="5" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>FORNECEDORES NACIONAIS</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>38545747.43</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>38545747.43</v>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>Contábil &gt; Financeiro</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>PENDENTE</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>Financeiro: 0.0 | Contábil: 38545747.43 | Diferença: 38545747.43</t>
+        </is>
+      </c>
+      <c r="I16" s="5" t="n"/>
+      <c r="J16" s="5" t="n"/>
+      <c r="K16" s="5" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>FORNECEDORES NACIONAIS</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>38545747.43</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>38545747.43</v>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>Contábil &gt; Financeiro</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>PENDENTE</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>Financeiro: 0.0 | Contábil: 38545747.43 | Diferença: 38545747.43</t>
+        </is>
+      </c>
+      <c r="I17" s="5" t="n"/>
+      <c r="J17" s="5" t="n"/>
+      <c r="K17" s="5" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>FORNECEDORES NACIONAIS</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>38545747.43</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>38545747.43</v>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>Contábil &gt; Financeiro</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>PENDENTE</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>Financeiro: 0.0 | Contábil: 38545747.43 | Diferença: 38545747.43</t>
+        </is>
+      </c>
+      <c r="I18" s="5" t="n"/>
+      <c r="J18" s="5" t="n"/>
+      <c r="K18" s="5" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>FORNECEDORES NACIONAIS</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>38545747.43</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>38545747.43</v>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>Contábil &gt; Financeiro</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>PENDENTE</t>
+        </is>
+      </c>
+      <c r="H19" s="3" t="inlineStr">
+        <is>
+          <t>Financeiro: 0.0 | Contábil: 38545747.43 | Diferença: 38545747.43</t>
+        </is>
+      </c>
+      <c r="I19" s="5" t="n"/>
+      <c r="J19" s="5" t="n"/>
+      <c r="K19" s="5" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>FORNECEDORES NACIONAIS</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>38545747.43</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>38545747.43</v>
+      </c>
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>Contábil &gt; Financeiro</t>
+        </is>
+      </c>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>PENDENTE</t>
+        </is>
+      </c>
+      <c r="H20" s="3" t="inlineStr">
+        <is>
+          <t>Financeiro: 0.0 | Contábil: 38545747.43 | Diferença: 38545747.43</t>
+        </is>
+      </c>
+      <c r="I20" s="5" t="n"/>
+      <c r="J20" s="5" t="n"/>
+      <c r="K20" s="5" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>FORNECEDORES NACIONAIS</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>38545747.43</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>38545747.43</v>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>Contábil &gt; Financeiro</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>PENDENTE</t>
+        </is>
+      </c>
+      <c r="H21" s="3" t="inlineStr">
+        <is>
+          <t>Financeiro: 0.0 | Contábil: 38545747.43 | Diferença: 38545747.43</t>
+        </is>
+      </c>
+      <c r="I21" s="5" t="n"/>
+      <c r="J21" s="5" t="n"/>
+      <c r="K21" s="5" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>FORNECEDORES NACIONAIS</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>38545747.43</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>38545747.43</v>
+      </c>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>Contábil &gt; Financeiro</t>
+        </is>
+      </c>
+      <c r="G22" s="3" t="inlineStr">
+        <is>
+          <t>PENDENTE</t>
+        </is>
+      </c>
+      <c r="H22" s="3" t="inlineStr">
+        <is>
+          <t>Financeiro: 0.0 | Contábil: 38545747.43 | Diferença: 38545747.43</t>
+        </is>
+      </c>
+      <c r="I22" s="5" t="n"/>
+      <c r="J22" s="5" t="n"/>
+      <c r="K22" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -765,7 +1467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -869,22 +1571,22 @@
     <row r="3">
       <c r="A3" s="5" t="inlineStr">
         <is>
-          <t>2.01.02.01.0099</t>
+          <t>2.01.02.01</t>
         </is>
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>FORNECEDORES - OUTROS</t>
+          <t>FORNECEDORES</t>
         </is>
       </c>
       <c r="C3" s="5" t="inlineStr"/>
       <c r="D3" s="5" t="inlineStr">
         <is>
-          <t>FORNECEDORES - OUTROS</t>
+          <t>FORNECEDORES</t>
         </is>
       </c>
       <c r="E3" s="6" t="n">
-        <v>69826115.86</v>
+        <v>108371863.29</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>0</v>
@@ -893,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="6" t="n">
-        <v>69826115.86</v>
+        <v>108371863.29</v>
       </c>
       <c r="I3" s="5" t="inlineStr">
         <is>
@@ -904,33 +1606,663 @@
     <row r="4">
       <c r="A4" s="5" t="inlineStr">
         <is>
-          <t>2.01.02.01.0001</t>
+          <t>2.01.02.01</t>
         </is>
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>FORNECEDORES NACIONAIS</t>
+          <t>FORNECEDORES</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr"/>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>108371863.29</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>108371863.29</v>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>2.01.02.01</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>108371863.29</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>108371863.29</v>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>2.01.02.01</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>108371863.29</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>108371863.29</v>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>2.01.02.01</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>108371863.29</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>108371863.29</v>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>2.01.02.01</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>108371863.29</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>108371863.29</v>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>2.01.02.01.0099</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDORES - OUTROS</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDORES - OUTROS</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>69826115.86</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>69826115.86</v>
+      </c>
+      <c r="I9" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>2.01.02.01.0099</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDORES - OUTROS</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDORES - OUTROS</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>69826115.86</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>69826115.86</v>
+      </c>
+      <c r="I10" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>2.01.02.01.0099</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDORES - OUTROS</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDORES - OUTROS</t>
+        </is>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>69826115.86</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>69826115.86</v>
+      </c>
+      <c r="I11" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>2.01.02.01.0099</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDORES - OUTROS</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDORES - OUTROS</t>
+        </is>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>69826115.86</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>69826115.86</v>
+      </c>
+      <c r="I12" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>2.01.02.01.0099</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDORES - OUTROS</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr"/>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDORES - OUTROS</t>
+        </is>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>69826115.86</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>69826115.86</v>
+      </c>
+      <c r="I13" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>2.01.02.01.0099</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDORES - OUTROS</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDORES - OUTROS</t>
+        </is>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>69826115.86</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>69826115.86</v>
+      </c>
+      <c r="I14" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>2.01.02.01.0099</t>
+        </is>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDORES - OUTROS</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr"/>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDORES - OUTROS</t>
+        </is>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>69826115.86</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>69826115.86</v>
+      </c>
+      <c r="I15" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>2.01.02.01.0001</t>
+        </is>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
           <t>FORNECEDORES NACIONAIS</t>
         </is>
       </c>
-      <c r="E4" s="6" t="n">
-        <v>38545747.43</v>
-      </c>
-      <c r="F4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6" t="n">
-        <v>38545747.43</v>
-      </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr"/>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDORES NACIONAIS</t>
+        </is>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>38545747.43</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>38545747.43</v>
+      </c>
+      <c r="I16" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDOR NACIONAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>2.01.02.01.0001</t>
+        </is>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDORES NACIONAIS</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr"/>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDORES NACIONAIS</t>
+        </is>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>38545747.43</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>38545747.43</v>
+      </c>
+      <c r="I17" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDOR NACIONAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>2.01.02.01.0001</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDORES NACIONAIS</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr"/>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDORES NACIONAIS</t>
+        </is>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>38545747.43</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>38545747.43</v>
+      </c>
+      <c r="I18" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDOR NACIONAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>2.01.02.01.0001</t>
+        </is>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDORES NACIONAIS</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr"/>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDORES NACIONAIS</t>
+        </is>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>38545747.43</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>38545747.43</v>
+      </c>
+      <c r="I19" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDOR NACIONAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>2.01.02.01.0001</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDORES NACIONAIS</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr"/>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDORES NACIONAIS</t>
+        </is>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>38545747.43</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>38545747.43</v>
+      </c>
+      <c r="I20" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDOR NACIONAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>2.01.02.01.0001</t>
+        </is>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDORES NACIONAIS</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr"/>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDORES NACIONAIS</t>
+        </is>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>38545747.43</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>38545747.43</v>
+      </c>
+      <c r="I21" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDOR NACIONAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>2.01.02.01.0001</t>
+        </is>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDORES NACIONAIS</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr"/>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>FORNECEDORES NACIONAIS</t>
+        </is>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>38545747.43</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>38545747.43</v>
+      </c>
+      <c r="I22" s="5" t="inlineStr">
         <is>
           <t>FORNECEDOR NACIONAL</t>
         </is>
@@ -979,7 +2311,7 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>20/08/2025 08:58:24</t>
+          <t>20/08/2025 09:45:29</t>
         </is>
       </c>
     </row>
@@ -1002,7 +2334,7 @@
         </is>
       </c>
       <c r="B4" s="5" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -1032,7 +2364,7 @@
         </is>
       </c>
       <c r="B7" s="5" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -1043,7 +2375,7 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>R$ 216,743,726.58</t>
+          <t>R$ 1,517,206,086.06</t>
         </is>
       </c>
     </row>

--- a/results/CONCILIACAO_01-08-2025_a_20-08-2025.xlsx
+++ b/results/CONCILIACAO_01-08-2025_a_20-08-2025.xlsx
@@ -466,7 +466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,17 +595,17 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>FORNECEDORES</t>
+          <t>FORNECEDORES - OUTROS</t>
         </is>
       </c>
       <c r="C3" s="4" t="n">
-        <v>108371863.29</v>
+        <v>69826115.86</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>108371863.29</v>
+        <v>69826115.86</v>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
@@ -619,7 +619,7 @@
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>Financeiro: 0.0 | Contábil: 108371863.29 | Diferença: 108371863.29</t>
+          <t>Financeiro: 0.0 | Contábil: 69826115.86 | Diferença: 69826115.86</t>
         </is>
       </c>
       <c r="I3" s="5" t="n"/>
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="C4" s="4" t="n">
-        <v>108371863.29</v>
+        <v>56230775.71</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>108371863.29</v>
+        <v>56230775.71</v>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>Financeiro: 0.0 | Contábil: 108371863.29 | Diferença: 108371863.29</t>
+          <t>Financeiro: 0.0 | Contábil: 56230775.71 | Diferença: 56230775.71</t>
         </is>
       </c>
       <c r="I4" s="5" t="n"/>
@@ -673,17 +673,17 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>FORNECEDORES</t>
+          <t>FORNECEDORES NACIONAIS</t>
         </is>
       </c>
       <c r="C5" s="4" t="n">
-        <v>108371863.29</v>
+        <v>56230775.71</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>108371863.29</v>
+        <v>56230775.71</v>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>Financeiro: 0.0 | Contábil: 108371863.29 | Diferença: 108371863.29</t>
+          <t>Financeiro: 0.0 | Contábil: 56230775.71 | Diferença: 56230775.71</t>
         </is>
       </c>
       <c r="I5" s="5" t="n"/>
@@ -716,13 +716,13 @@
         </is>
       </c>
       <c r="C6" s="4" t="n">
-        <v>108371863.29</v>
+        <v>56230775.71</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>108371863.29</v>
+        <v>56230775.71</v>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
@@ -736,7 +736,7 @@
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>Financeiro: 0.0 | Contábil: 108371863.29 | Diferença: 108371863.29</t>
+          <t>Financeiro: 0.0 | Contábil: 56230775.71 | Diferença: 56230775.71</t>
         </is>
       </c>
       <c r="I6" s="5" t="n"/>
@@ -751,17 +751,17 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>FORNECEDORES</t>
+          <t>FORNECEDORES NACIONAIS</t>
         </is>
       </c>
       <c r="C7" s="4" t="n">
-        <v>108371863.29</v>
+        <v>56230775.71</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>108371863.29</v>
+        <v>56230775.71</v>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
       </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t>Financeiro: 0.0 | Contábil: 108371863.29 | Diferença: 108371863.29</t>
+          <t>Financeiro: 0.0 | Contábil: 56230775.71 | Diferença: 56230775.71</t>
         </is>
       </c>
       <c r="I7" s="5" t="n"/>
@@ -794,13 +794,13 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>108371863.29</v>
+        <v>56230775.71</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>108371863.29</v>
+        <v>56230775.71</v>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>Financeiro: 0.0 | Contábil: 108371863.29 | Diferença: 108371863.29</t>
+          <t>Financeiro: 0.0 | Contábil: 56230775.71 | Diferença: 56230775.71</t>
         </is>
       </c>
       <c r="I8" s="5" t="n"/>
@@ -829,17 +829,17 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>FORNECEDORES - OUTROS</t>
+          <t>FORNECEDORES NACIONAIS</t>
         </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>69826115.86</v>
+        <v>56230775.71</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>69826115.86</v>
+        <v>56230775.71</v>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
       </c>
       <c r="H9" s="3" t="inlineStr">
         <is>
-          <t>Financeiro: 0.0 | Contábil: 69826115.86 | Diferença: 69826115.86</t>
+          <t>Financeiro: 0.0 | Contábil: 56230775.71 | Diferença: 56230775.71</t>
         </is>
       </c>
       <c r="I9" s="5" t="n"/>
@@ -868,17 +868,17 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>FORNECEDORES - OUTROS</t>
+          <t>FORNECEDORES</t>
         </is>
       </c>
       <c r="C10" s="4" t="n">
-        <v>69826115.86</v>
+        <v>56230775.71</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>69826115.86</v>
+        <v>56230775.71</v>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
       </c>
       <c r="H10" s="3" t="inlineStr">
         <is>
-          <t>Financeiro: 0.0 | Contábil: 69826115.86 | Diferença: 69826115.86</t>
+          <t>Financeiro: 0.0 | Contábil: 56230775.71 | Diferença: 56230775.71</t>
         </is>
       </c>
       <c r="I10" s="5" t="n"/>
@@ -907,17 +907,17 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>FORNECEDORES - OUTROS</t>
+          <t>FORNECEDORES NACIONAIS</t>
         </is>
       </c>
       <c r="C11" s="4" t="n">
-        <v>69826115.86</v>
+        <v>56230775.71</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>69826115.86</v>
+        <v>56230775.71</v>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
       </c>
       <c r="H11" s="3" t="inlineStr">
         <is>
-          <t>Financeiro: 0.0 | Contábil: 69826115.86 | Diferença: 69826115.86</t>
+          <t>Financeiro: 0.0 | Contábil: 56230775.71 | Diferença: 56230775.71</t>
         </is>
       </c>
       <c r="I11" s="5" t="n"/>
@@ -946,17 +946,17 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>FORNECEDORES - OUTROS</t>
+          <t>FORNECEDORES</t>
         </is>
       </c>
       <c r="C12" s="4" t="n">
-        <v>69826115.86</v>
+        <v>56230775.71</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>69826115.86</v>
+        <v>56230775.71</v>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="H12" s="3" t="inlineStr">
         <is>
-          <t>Financeiro: 0.0 | Contábil: 69826115.86 | Diferença: 69826115.86</t>
+          <t>Financeiro: 0.0 | Contábil: 56230775.71 | Diferença: 56230775.71</t>
         </is>
       </c>
       <c r="I12" s="5" t="n"/>
@@ -985,17 +985,17 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>FORNECEDORES - OUTROS</t>
+          <t>FORNECEDORES NACIONAIS</t>
         </is>
       </c>
       <c r="C13" s="4" t="n">
-        <v>69826115.86</v>
+        <v>56230775.71</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>69826115.86</v>
+        <v>56230775.71</v>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="H13" s="3" t="inlineStr">
         <is>
-          <t>Financeiro: 0.0 | Contábil: 69826115.86 | Diferença: 69826115.86</t>
+          <t>Financeiro: 0.0 | Contábil: 56230775.71 | Diferença: 56230775.71</t>
         </is>
       </c>
       <c r="I13" s="5" t="n"/>
@@ -1024,17 +1024,17 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>FORNECEDORES - OUTROS</t>
+          <t>FORNECEDORES NACIONAIS</t>
         </is>
       </c>
       <c r="C14" s="4" t="n">
-        <v>69826115.86</v>
+        <v>38545747.43</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>69826115.86</v>
+        <v>38545747.43</v>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
@@ -1048,324 +1048,12 @@
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>Financeiro: 0.0 | Contábil: 69826115.86 | Diferença: 69826115.86</t>
+          <t>Financeiro: 0.0 | Contábil: 38545747.43 | Diferença: 38545747.43</t>
         </is>
       </c>
       <c r="I14" s="5" t="n"/>
       <c r="J14" s="5" t="n"/>
       <c r="K14" s="5" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>FORNECEDORES</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>FORNECEDORES - OUTROS</t>
-        </is>
-      </c>
-      <c r="C15" s="4" t="n">
-        <v>69826115.86</v>
-      </c>
-      <c r="D15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3" t="n">
-        <v>69826115.86</v>
-      </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>Contábil &gt; Financeiro</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>PENDENTE</t>
-        </is>
-      </c>
-      <c r="H15" s="3" t="inlineStr">
-        <is>
-          <t>Financeiro: 0.0 | Contábil: 69826115.86 | Diferença: 69826115.86</t>
-        </is>
-      </c>
-      <c r="I15" s="5" t="n"/>
-      <c r="J15" s="5" t="n"/>
-      <c r="K15" s="5" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>FORNECEDORES</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C16" s="4" t="n">
-        <v>38545747.43</v>
-      </c>
-      <c r="D16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3" t="n">
-        <v>38545747.43</v>
-      </c>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>Contábil &gt; Financeiro</t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>PENDENTE</t>
-        </is>
-      </c>
-      <c r="H16" s="3" t="inlineStr">
-        <is>
-          <t>Financeiro: 0.0 | Contábil: 38545747.43 | Diferença: 38545747.43</t>
-        </is>
-      </c>
-      <c r="I16" s="5" t="n"/>
-      <c r="J16" s="5" t="n"/>
-      <c r="K16" s="5" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>FORNECEDORES</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C17" s="4" t="n">
-        <v>38545747.43</v>
-      </c>
-      <c r="D17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3" t="n">
-        <v>38545747.43</v>
-      </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>Contábil &gt; Financeiro</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>PENDENTE</t>
-        </is>
-      </c>
-      <c r="H17" s="3" t="inlineStr">
-        <is>
-          <t>Financeiro: 0.0 | Contábil: 38545747.43 | Diferença: 38545747.43</t>
-        </is>
-      </c>
-      <c r="I17" s="5" t="n"/>
-      <c r="J17" s="5" t="n"/>
-      <c r="K17" s="5" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr">
-        <is>
-          <t>FORNECEDORES</t>
-        </is>
-      </c>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C18" s="4" t="n">
-        <v>38545747.43</v>
-      </c>
-      <c r="D18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3" t="n">
-        <v>38545747.43</v>
-      </c>
-      <c r="F18" s="3" t="inlineStr">
-        <is>
-          <t>Contábil &gt; Financeiro</t>
-        </is>
-      </c>
-      <c r="G18" s="3" t="inlineStr">
-        <is>
-          <t>PENDENTE</t>
-        </is>
-      </c>
-      <c r="H18" s="3" t="inlineStr">
-        <is>
-          <t>Financeiro: 0.0 | Contábil: 38545747.43 | Diferença: 38545747.43</t>
-        </is>
-      </c>
-      <c r="I18" s="5" t="n"/>
-      <c r="J18" s="5" t="n"/>
-      <c r="K18" s="5" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>FORNECEDORES</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C19" s="4" t="n">
-        <v>38545747.43</v>
-      </c>
-      <c r="D19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3" t="n">
-        <v>38545747.43</v>
-      </c>
-      <c r="F19" s="3" t="inlineStr">
-        <is>
-          <t>Contábil &gt; Financeiro</t>
-        </is>
-      </c>
-      <c r="G19" s="3" t="inlineStr">
-        <is>
-          <t>PENDENTE</t>
-        </is>
-      </c>
-      <c r="H19" s="3" t="inlineStr">
-        <is>
-          <t>Financeiro: 0.0 | Contábil: 38545747.43 | Diferença: 38545747.43</t>
-        </is>
-      </c>
-      <c r="I19" s="5" t="n"/>
-      <c r="J19" s="5" t="n"/>
-      <c r="K19" s="5" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>FORNECEDORES</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="n">
-        <v>38545747.43</v>
-      </c>
-      <c r="D20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3" t="n">
-        <v>38545747.43</v>
-      </c>
-      <c r="F20" s="3" t="inlineStr">
-        <is>
-          <t>Contábil &gt; Financeiro</t>
-        </is>
-      </c>
-      <c r="G20" s="3" t="inlineStr">
-        <is>
-          <t>PENDENTE</t>
-        </is>
-      </c>
-      <c r="H20" s="3" t="inlineStr">
-        <is>
-          <t>Financeiro: 0.0 | Contábil: 38545747.43 | Diferença: 38545747.43</t>
-        </is>
-      </c>
-      <c r="I20" s="5" t="n"/>
-      <c r="J20" s="5" t="n"/>
-      <c r="K20" s="5" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>FORNECEDORES</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C21" s="4" t="n">
-        <v>38545747.43</v>
-      </c>
-      <c r="D21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3" t="n">
-        <v>38545747.43</v>
-      </c>
-      <c r="F21" s="3" t="inlineStr">
-        <is>
-          <t>Contábil &gt; Financeiro</t>
-        </is>
-      </c>
-      <c r="G21" s="3" t="inlineStr">
-        <is>
-          <t>PENDENTE</t>
-        </is>
-      </c>
-      <c r="H21" s="3" t="inlineStr">
-        <is>
-          <t>Financeiro: 0.0 | Contábil: 38545747.43 | Diferença: 38545747.43</t>
-        </is>
-      </c>
-      <c r="I21" s="5" t="n"/>
-      <c r="J21" s="5" t="n"/>
-      <c r="K21" s="5" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="inlineStr">
-        <is>
-          <t>FORNECEDORES</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C22" s="4" t="n">
-        <v>38545747.43</v>
-      </c>
-      <c r="D22" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3" t="n">
-        <v>38545747.43</v>
-      </c>
-      <c r="F22" s="3" t="inlineStr">
-        <is>
-          <t>Contábil &gt; Financeiro</t>
-        </is>
-      </c>
-      <c r="G22" s="3" t="inlineStr">
-        <is>
-          <t>PENDENTE</t>
-        </is>
-      </c>
-      <c r="H22" s="3" t="inlineStr">
-        <is>
-          <t>Financeiro: 0.0 | Contábil: 38545747.43 | Diferença: 38545747.43</t>
-        </is>
-      </c>
-      <c r="I22" s="5" t="n"/>
-      <c r="J22" s="5" t="n"/>
-      <c r="K22" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1467,7 +1155,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1480,8 +1168,8 @@
     <col width="22.8" customWidth="1" min="3" max="3"/>
     <col width="28.8" customWidth="1" min="4" max="4"/>
     <col width="19.2" customWidth="1" min="5" max="5"/>
-    <col width="9.6" customWidth="1" min="6" max="6"/>
-    <col width="10.8" customWidth="1" min="7" max="7"/>
+    <col width="15.6" customWidth="1" min="6" max="6"/>
+    <col width="15.6" customWidth="1" min="7" max="7"/>
     <col width="16.8" customWidth="1" min="8" max="8"/>
     <col width="25.2" customWidth="1" min="9" max="9"/>
   </cols>
@@ -1571,22 +1259,22 @@
     <row r="3">
       <c r="A3" s="5" t="inlineStr">
         <is>
-          <t>2.01.02.01</t>
+          <t>2.01.02.01.0099</t>
         </is>
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>FORNECEDORES</t>
+          <t>FORNECEDORES - OUTROS</t>
         </is>
       </c>
       <c r="C3" s="5" t="inlineStr"/>
       <c r="D3" s="5" t="inlineStr">
         <is>
-          <t>FORNECEDORES</t>
+          <t>FORNECEDORES - OUTROS</t>
         </is>
       </c>
       <c r="E3" s="6" t="n">
-        <v>108371863.29</v>
+        <v>69826115.86</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>0</v>
@@ -1595,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="6" t="n">
-        <v>108371863.29</v>
+        <v>69826115.86</v>
       </c>
       <c r="I3" s="5" t="inlineStr">
         <is>
@@ -1606,7 +1294,7 @@
     <row r="4">
       <c r="A4" s="5" t="inlineStr">
         <is>
-          <t>2.01.02.01</t>
+          <t>CONTA_PADRAO</t>
         </is>
       </c>
       <c r="B4" s="5" t="inlineStr">
@@ -1621,16 +1309,16 @@
         </is>
       </c>
       <c r="E4" s="6" t="n">
-        <v>108371863.29</v>
+        <v>85647339.11</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0</v>
+        <v>21339454527</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0</v>
+        <v>18397798187</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>108371863.29</v>
+        <v>56230775.71</v>
       </c>
       <c r="I4" s="5" t="inlineStr">
         <is>
@@ -1641,7 +1329,7 @@
     <row r="5">
       <c r="A5" s="5" t="inlineStr">
         <is>
-          <t>2.01.02.01</t>
+          <t>CONTA_PADRAO</t>
         </is>
       </c>
       <c r="B5" s="5" t="inlineStr">
@@ -1656,16 +1344,16 @@
         </is>
       </c>
       <c r="E5" s="6" t="n">
-        <v>108371863.29</v>
+        <v>85647339.11</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0</v>
+        <v>21339454527</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0</v>
+        <v>18397798187</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>108371863.29</v>
+        <v>56230775.71</v>
       </c>
       <c r="I5" s="5" t="inlineStr">
         <is>
@@ -1676,7 +1364,7 @@
     <row r="6">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>2.01.02.01</t>
+          <t>CONTA_PADRAO</t>
         </is>
       </c>
       <c r="B6" s="5" t="inlineStr">
@@ -1691,16 +1379,16 @@
         </is>
       </c>
       <c r="E6" s="6" t="n">
-        <v>108371863.29</v>
+        <v>85647339.11</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0</v>
+        <v>21339454527</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0</v>
+        <v>18397798187</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>108371863.29</v>
+        <v>56230775.71</v>
       </c>
       <c r="I6" s="5" t="inlineStr">
         <is>
@@ -1711,7 +1399,7 @@
     <row r="7">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>2.01.02.01</t>
+          <t>CONTA_PADRAO</t>
         </is>
       </c>
       <c r="B7" s="5" t="inlineStr">
@@ -1726,16 +1414,16 @@
         </is>
       </c>
       <c r="E7" s="6" t="n">
-        <v>108371863.29</v>
+        <v>85647339.11</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0</v>
+        <v>21339454527</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0</v>
+        <v>18397798187</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>108371863.29</v>
+        <v>56230775.71</v>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
@@ -1746,7 +1434,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>2.01.02.01</t>
+          <t>CONTA_PADRAO</t>
         </is>
       </c>
       <c r="B8" s="5" t="inlineStr">
@@ -1761,16 +1449,16 @@
         </is>
       </c>
       <c r="E8" s="6" t="n">
-        <v>108371863.29</v>
+        <v>85647339.11</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0</v>
+        <v>21339454527</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0</v>
+        <v>18397798187</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>108371863.29</v>
+        <v>56230775.71</v>
       </c>
       <c r="I8" s="5" t="inlineStr">
         <is>
@@ -1781,22 +1469,22 @@
     <row r="9">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>2.01.02.01.0099</t>
+          <t>2.01.02.01.0001</t>
         </is>
       </c>
       <c r="B9" s="5" t="inlineStr">
         <is>
-          <t>FORNECEDORES - OUTROS</t>
+          <t>FORNECEDORES NACIONAIS</t>
         </is>
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="inlineStr">
         <is>
-          <t>FORNECEDORES - OUTROS</t>
+          <t>FORNECEDORES NACIONAIS</t>
         </is>
       </c>
       <c r="E9" s="6" t="n">
-        <v>69826115.86</v>
+        <v>38545747.43</v>
       </c>
       <c r="F9" s="6" t="n">
         <v>0</v>
@@ -1805,464 +1493,184 @@
         <v>0</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>69826115.86</v>
+        <v>38545747.43</v>
       </c>
       <c r="I9" s="5" t="inlineStr">
         <is>
-          <t>FORNECEDOR</t>
+          <t>FORNECEDOR NACIONAL</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>2.01.02.01.0099</t>
+          <t>CONTA_PADRAO</t>
         </is>
       </c>
       <c r="B10" s="5" t="inlineStr">
         <is>
-          <t>FORNECEDORES - OUTROS</t>
+          <t>FORNECEDORES NACIONAIS</t>
         </is>
       </c>
       <c r="C10" s="5" t="inlineStr"/>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>FORNECEDORES - OUTROS</t>
+          <t>FORNECEDORES NACIONAIS</t>
         </is>
       </c>
       <c r="E10" s="6" t="n">
-        <v>69826115.86</v>
+        <v>85647339.11</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0</v>
+        <v>21339454527</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0</v>
+        <v>18397798187</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>69826115.86</v>
+        <v>56230775.71</v>
       </c>
       <c r="I10" s="5" t="inlineStr">
         <is>
-          <t>FORNECEDOR</t>
+          <t>FORNECEDOR NACIONAL</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>2.01.02.01.0099</t>
+          <t>CONTA_PADRAO</t>
         </is>
       </c>
       <c r="B11" s="5" t="inlineStr">
         <is>
-          <t>FORNECEDORES - OUTROS</t>
+          <t>FORNECEDORES NACIONAIS</t>
         </is>
       </c>
       <c r="C11" s="5" t="inlineStr"/>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>FORNECEDORES - OUTROS</t>
+          <t>FORNECEDORES NACIONAIS</t>
         </is>
       </c>
       <c r="E11" s="6" t="n">
-        <v>69826115.86</v>
+        <v>85647339.11</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0</v>
+        <v>21339454527</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0</v>
+        <v>18397798187</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>69826115.86</v>
+        <v>56230775.71</v>
       </c>
       <c r="I11" s="5" t="inlineStr">
         <is>
-          <t>FORNECEDOR</t>
+          <t>FORNECEDOR NACIONAL</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>2.01.02.01.0099</t>
+          <t>CONTA_PADRAO</t>
         </is>
       </c>
       <c r="B12" s="5" t="inlineStr">
         <is>
-          <t>FORNECEDORES - OUTROS</t>
+          <t>FORNECEDORES NACIONAIS</t>
         </is>
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>FORNECEDORES - OUTROS</t>
+          <t>FORNECEDORES NACIONAIS</t>
         </is>
       </c>
       <c r="E12" s="6" t="n">
-        <v>69826115.86</v>
+        <v>85647339.11</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0</v>
+        <v>21339454527</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0</v>
+        <v>18397798187</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>69826115.86</v>
+        <v>56230775.71</v>
       </c>
       <c r="I12" s="5" t="inlineStr">
         <is>
-          <t>FORNECEDOR</t>
+          <t>FORNECEDOR NACIONAL</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>2.01.02.01.0099</t>
+          <t>CONTA_PADRAO</t>
         </is>
       </c>
       <c r="B13" s="5" t="inlineStr">
         <is>
-          <t>FORNECEDORES - OUTROS</t>
+          <t>FORNECEDORES NACIONAIS</t>
         </is>
       </c>
       <c r="C13" s="5" t="inlineStr"/>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>FORNECEDORES - OUTROS</t>
+          <t>FORNECEDORES NACIONAIS</t>
         </is>
       </c>
       <c r="E13" s="6" t="n">
-        <v>69826115.86</v>
+        <v>85647339.11</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0</v>
+        <v>21339454527</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0</v>
+        <v>18397798187</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>69826115.86</v>
+        <v>56230775.71</v>
       </c>
       <c r="I13" s="5" t="inlineStr">
         <is>
-          <t>FORNECEDOR</t>
+          <t>FORNECEDOR NACIONAL</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="inlineStr">
         <is>
-          <t>2.01.02.01.0099</t>
+          <t>CONTA_PADRAO</t>
         </is>
       </c>
       <c r="B14" s="5" t="inlineStr">
         <is>
-          <t>FORNECEDORES - OUTROS</t>
+          <t>FORNECEDORES NACIONAIS</t>
         </is>
       </c>
       <c r="C14" s="5" t="inlineStr"/>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>FORNECEDORES - OUTROS</t>
+          <t>FORNECEDORES NACIONAIS</t>
         </is>
       </c>
       <c r="E14" s="6" t="n">
-        <v>69826115.86</v>
+        <v>85647339.11</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0</v>
+        <v>21339454527</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0</v>
+        <v>18397798187</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>69826115.86</v>
+        <v>56230775.71</v>
       </c>
       <c r="I14" s="5" t="inlineStr">
-        <is>
-          <t>FORNECEDOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="5" t="inlineStr">
-        <is>
-          <t>2.01.02.01.0099</t>
-        </is>
-      </c>
-      <c r="B15" s="5" t="inlineStr">
-        <is>
-          <t>FORNECEDORES - OUTROS</t>
-        </is>
-      </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr">
-        <is>
-          <t>FORNECEDORES - OUTROS</t>
-        </is>
-      </c>
-      <c r="E15" s="6" t="n">
-        <v>69826115.86</v>
-      </c>
-      <c r="F15" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="6" t="n">
-        <v>69826115.86</v>
-      </c>
-      <c r="I15" s="5" t="inlineStr">
-        <is>
-          <t>FORNECEDOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="5" t="inlineStr">
-        <is>
-          <t>2.01.02.01.0001</t>
-        </is>
-      </c>
-      <c r="B16" s="5" t="inlineStr">
-        <is>
-          <t>FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr">
-        <is>
-          <t>FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="E16" s="6" t="n">
-        <v>38545747.43</v>
-      </c>
-      <c r="F16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6" t="n">
-        <v>38545747.43</v>
-      </c>
-      <c r="I16" s="5" t="inlineStr">
-        <is>
-          <t>FORNECEDOR NACIONAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="5" t="inlineStr">
-        <is>
-          <t>2.01.02.01.0001</t>
-        </is>
-      </c>
-      <c r="B17" s="5" t="inlineStr">
-        <is>
-          <t>FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr">
-        <is>
-          <t>FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="E17" s="6" t="n">
-        <v>38545747.43</v>
-      </c>
-      <c r="F17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6" t="n">
-        <v>38545747.43</v>
-      </c>
-      <c r="I17" s="5" t="inlineStr">
-        <is>
-          <t>FORNECEDOR NACIONAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="inlineStr">
-        <is>
-          <t>2.01.02.01.0001</t>
-        </is>
-      </c>
-      <c r="B18" s="5" t="inlineStr">
-        <is>
-          <t>FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr">
-        <is>
-          <t>FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="E18" s="6" t="n">
-        <v>38545747.43</v>
-      </c>
-      <c r="F18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6" t="n">
-        <v>38545747.43</v>
-      </c>
-      <c r="I18" s="5" t="inlineStr">
-        <is>
-          <t>FORNECEDOR NACIONAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="5" t="inlineStr">
-        <is>
-          <t>2.01.02.01.0001</t>
-        </is>
-      </c>
-      <c r="B19" s="5" t="inlineStr">
-        <is>
-          <t>FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="inlineStr"/>
-      <c r="D19" s="5" t="inlineStr">
-        <is>
-          <t>FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="E19" s="6" t="n">
-        <v>38545747.43</v>
-      </c>
-      <c r="F19" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="6" t="n">
-        <v>38545747.43</v>
-      </c>
-      <c r="I19" s="5" t="inlineStr">
-        <is>
-          <t>FORNECEDOR NACIONAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="5" t="inlineStr">
-        <is>
-          <t>2.01.02.01.0001</t>
-        </is>
-      </c>
-      <c r="B20" s="5" t="inlineStr">
-        <is>
-          <t>FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr">
-        <is>
-          <t>FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="E20" s="6" t="n">
-        <v>38545747.43</v>
-      </c>
-      <c r="F20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6" t="n">
-        <v>38545747.43</v>
-      </c>
-      <c r="I20" s="5" t="inlineStr">
-        <is>
-          <t>FORNECEDOR NACIONAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="5" t="inlineStr">
-        <is>
-          <t>2.01.02.01.0001</t>
-        </is>
-      </c>
-      <c r="B21" s="5" t="inlineStr">
-        <is>
-          <t>FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr">
-        <is>
-          <t>FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="E21" s="6" t="n">
-        <v>38545747.43</v>
-      </c>
-      <c r="F21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="6" t="n">
-        <v>38545747.43</v>
-      </c>
-      <c r="I21" s="5" t="inlineStr">
-        <is>
-          <t>FORNECEDOR NACIONAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="5" t="inlineStr">
-        <is>
-          <t>2.01.02.01.0001</t>
-        </is>
-      </c>
-      <c r="B22" s="5" t="inlineStr">
-        <is>
-          <t>FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr">
-        <is>
-          <t>FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="E22" s="6" t="n">
-        <v>38545747.43</v>
-      </c>
-      <c r="F22" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="6" t="n">
-        <v>38545747.43</v>
-      </c>
-      <c r="I22" s="5" t="inlineStr">
         <is>
           <t>FORNECEDOR NACIONAL</t>
         </is>
@@ -2311,7 +1719,7 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>20/08/2025 09:45:29</t>
+          <t>20/08/2025 16:44:50</t>
         </is>
       </c>
     </row>
@@ -2334,7 +1742,7 @@
         </is>
       </c>
       <c r="B4" s="5" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -2364,7 +1772,7 @@
         </is>
       </c>
       <c r="B7" s="5" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -2375,7 +1783,7 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>R$ 1,517,206,086.06</t>
+          <t>R$ 779,051,483.68</t>
         </is>
       </c>
     </row>
